--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.03421885291730389</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1679157698378613</v>
+        <v>0.1679157698378612</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02965338238052619</v>
@@ -664,7 +664,7 @@
         <v>0.01905314204187154</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08801604871219366</v>
+        <v>0.08801604871219365</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004309391427048373</v>
+        <v>0.004808883785934633</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003626374487699827</v>
+        <v>0.003677265051698074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03020365823691227</v>
+        <v>0.03075020113085779</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01910992095438137</v>
+        <v>0.01907937503312207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.121745600501345</v>
+        <v>0.114336620682607</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01968962123546352</v>
+        <v>0.01953082868181431</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01086926485550305</v>
+        <v>0.01082383125325429</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06206302615777042</v>
+        <v>0.0613481189368594</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02665642146959936</v>
+        <v>0.02732588254215065</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01668589997564309</v>
+        <v>0.01667771374840175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04683927298733429</v>
+        <v>0.04651813071664412</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07100754275649745</v>
+        <v>0.07303942528114893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05453056871301026</v>
+        <v>0.05429252547245614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2295155971109241</v>
+        <v>0.2378541781465901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04347867803087518</v>
+        <v>0.04382202488742844</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02949986274273715</v>
+        <v>0.0294876303361789</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1199697924709453</v>
+        <v>0.1237605868143049</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.03024153524111556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04965668815770181</v>
+        <v>0.04965668815770183</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.0676297133450523</v>
@@ -773,7 +773,7 @@
         <v>0.04782445688255454</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.09489481096161928</v>
+        <v>0.09489481096161929</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01601103985213016</v>
+        <v>0.01625298590872956</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0171579904924423</v>
+        <v>0.01823105651781164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02835336892626878</v>
+        <v>0.02689809007723708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0470022018154339</v>
+        <v>0.0474125192656453</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04846076290184145</v>
+        <v>0.04807706392821678</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1086367882302866</v>
+        <v>0.1094433410878913</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03602824744197367</v>
+        <v>0.03537078978662889</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03657638239406034</v>
+        <v>0.03642914486325942</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07647829027064328</v>
+        <v>0.07479242973308252</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04123498058481319</v>
+        <v>0.04309330962580905</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04936343699206409</v>
+        <v>0.047824043206188</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08007548703057268</v>
+        <v>0.07984379172631538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08960795846631139</v>
+        <v>0.09158533513693255</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08943755419892289</v>
+        <v>0.09005869930253398</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1726026831753783</v>
+        <v>0.1718546872737764</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05936155872424415</v>
+        <v>0.0613546275008156</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06156639445648387</v>
+        <v>0.06074455641363432</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1181402970427923</v>
+        <v>0.1151175241483563</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03003094707430527</v>
+        <v>0.02956777814249734</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02412101221538017</v>
+        <v>0.02443739119436577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05088927975180457</v>
+        <v>0.05084946908861487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09514649509613299</v>
+        <v>0.09610086176193648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07041358315999036</v>
+        <v>0.06865259453679927</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1513962775282443</v>
+        <v>0.1512269831741908</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06554855505150048</v>
+        <v>0.06624392469801292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05185349840379669</v>
+        <v>0.05099459333889154</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1078770367440741</v>
+        <v>0.1084642458265894</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06320475701889462</v>
+        <v>0.06162500473140907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05631712281164248</v>
+        <v>0.05540111664090307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09431781435792362</v>
+        <v>0.0976900133570994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1499647760032444</v>
+        <v>0.1445369608849528</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1131091692530435</v>
+        <v>0.1114300927023691</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2024277381201493</v>
+        <v>0.202180922352331</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09632639687632719</v>
+        <v>0.09693013808098463</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08026408312472977</v>
+        <v>0.07764810300428217</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.139822060681681</v>
+        <v>0.1419373981201793</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04810844197482995</v>
+        <v>0.04661783347508671</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04579571103327681</v>
+        <v>0.04611445540448399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.112651282835083</v>
+        <v>0.1095875073443753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1174888576932998</v>
+        <v>0.1150709755223108</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1012527410113801</v>
+        <v>0.1036273253463809</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2227738972341117</v>
+        <v>0.2213672813937267</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08602325253093493</v>
+        <v>0.08535851731873144</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0813318396045198</v>
+        <v>0.08065345074344099</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.176642113005179</v>
+        <v>0.1736765416501208</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09082700393330034</v>
+        <v>0.09010238181149499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08901077916216635</v>
+        <v>0.08689393050898321</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1640284773591165</v>
+        <v>0.1646642767705347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.175206837756465</v>
+        <v>0.1757361124473883</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1569502584276317</v>
+        <v>0.1576989795733464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2731022054158412</v>
+        <v>0.2701912395265404</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1232672189320883</v>
+        <v>0.1232224211453749</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1144807590000086</v>
+        <v>0.1151890554878255</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2117696171635662</v>
+        <v>0.2112614461074027</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06430377126249713</v>
+        <v>0.06430546735632393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09250838480626994</v>
+        <v>0.09271337640028722</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1652491347609074</v>
+        <v>0.1683093504043708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1783347803924411</v>
+        <v>0.1750151930462948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1444763866418813</v>
+        <v>0.1450123257580045</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2864966244585747</v>
+        <v>0.284970158577571</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1274092530067847</v>
+        <v>0.1281829942683674</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.128582756985119</v>
+        <v>0.1273169422700604</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2335137411591111</v>
+        <v>0.2335346364926482</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1166972626658522</v>
+        <v>0.1180971486774361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1573682563192756</v>
+        <v>0.154468219640067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2255289678359914</v>
+        <v>0.2254769817393546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2540819965987128</v>
+        <v>0.2596983639118824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2182718628353088</v>
+        <v>0.2192555117664305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3456614095670262</v>
+        <v>0.3418225105675345</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1780559296991944</v>
+        <v>0.1761277815026679</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.177987224842223</v>
+        <v>0.1742545312011948</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2758995491996992</v>
+        <v>0.2783678376963278</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.1727401129425245</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3353479452670382</v>
+        <v>0.3353479452670381</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2205479979538731</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1101121783347562</v>
+        <v>0.1117385564875144</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06390908474988205</v>
+        <v>0.0660578860612568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1490897532740712</v>
+        <v>0.1491541979490039</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.236277632870925</v>
+        <v>0.234257580715863</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1345472624444836</v>
+        <v>0.1387222951053628</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.300488264544602</v>
+        <v>0.3009669159242376</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1832087211203405</v>
+        <v>0.1887843456706804</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1122602381550358</v>
+        <v>0.113593495160705</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2381832391951802</v>
+        <v>0.2360284315593012</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1963366545327623</v>
+        <v>0.1954249615275205</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1291738796007361</v>
+        <v>0.1340925853895109</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.213855806728137</v>
+        <v>0.213265094189645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3323766046188329</v>
+        <v>0.3301081051381982</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2136148642558852</v>
+        <v>0.2159786792998617</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3674329552298204</v>
+        <v>0.3695678163690863</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2525829130035904</v>
+        <v>0.2552260575793194</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.162907727019541</v>
+        <v>0.1640940273357691</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2831571345043065</v>
+        <v>0.2838970379159097</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.2874505032771559</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.5096589088722223</v>
+        <v>0.5096589088722222</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.3135343380015347</v>
@@ -1318,7 +1318,7 @@
         <v>0.2522487205696747</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.426844477489198</v>
+        <v>0.4268444774891978</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1455457039521974</v>
+        <v>0.1508465227094045</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1578718725381331</v>
+        <v>0.1513317892861994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2622864988719226</v>
+        <v>0.2606925244349182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.339409860919016</v>
+        <v>0.3323338751671349</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2416336980814377</v>
+        <v>0.2368732082969935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4778871085703665</v>
+        <v>0.472774632417659</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.278121054150988</v>
+        <v>0.2762170459982903</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.216157391038747</v>
+        <v>0.2178610539649925</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3966780767658331</v>
+        <v>0.3991621594354137</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2584657899169682</v>
+        <v>0.2546868821198059</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.253687611187514</v>
+        <v>0.2451346344420501</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3430050507595183</v>
+        <v>0.3511843358827964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4380273356071307</v>
+        <v>0.4375159054430682</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3419224940197154</v>
+        <v>0.3362281195875624</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5438440771441128</v>
+        <v>0.541091364346947</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3520356433011179</v>
+        <v>0.3521839769363594</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2881856077614558</v>
+        <v>0.2901221653508467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4518696403892469</v>
+        <v>0.4541167149110001</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1427,7 @@
         <v>0.09951588672539331</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1957</v>
+        <v>2184</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12995</v>
+        <v>13230</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7563</v>
+        <v>7551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44134</v>
+        <v>41448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17413</v>
+        <v>17273</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8861</v>
+        <v>8824</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>47807</v>
+        <v>47257</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12106</v>
+        <v>12410</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6999</v>
+        <v>6996</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19101</v>
+        <v>18970</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30550</v>
+        <v>31424</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21581</v>
+        <v>21487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83202</v>
+        <v>86225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38451</v>
+        <v>38755</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24049</v>
+        <v>24039</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>92413</v>
+        <v>95333</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11001</v>
+        <v>11167</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10132</v>
+        <v>10765</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13521</v>
+        <v>12827</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28683</v>
+        <v>28934</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27310</v>
+        <v>27094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54507</v>
+        <v>54911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46741</v>
+        <v>45888</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42211</v>
+        <v>42041</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>74843</v>
+        <v>73194</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28332</v>
+        <v>29609</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29149</v>
+        <v>28240</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38187</v>
+        <v>38077</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>54684</v>
+        <v>55890</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50402</v>
+        <v>50752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86600</v>
+        <v>86225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>77012</v>
+        <v>79598</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71050</v>
+        <v>70102</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>115615</v>
+        <v>112657</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20477</v>
+        <v>20161</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16139</v>
+        <v>16351</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31594</v>
+        <v>31569</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>67635</v>
+        <v>68313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>46571</v>
+        <v>45406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94349</v>
+        <v>94244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>91290</v>
+        <v>92259</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>68990</v>
+        <v>67847</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134202</v>
+        <v>134933</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43097</v>
+        <v>42020</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37682</v>
+        <v>37069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>58556</v>
+        <v>60650</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106602</v>
+        <v>102744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74809</v>
+        <v>73698</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>126152</v>
+        <v>125998</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>134155</v>
+        <v>134996</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>106790</v>
+        <v>103309</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>173943</v>
+        <v>176574</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29568</v>
+        <v>28652</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29586</v>
+        <v>29792</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>78925</v>
+        <v>76779</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>72397</v>
+        <v>70907</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65721</v>
+        <v>67262</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>164159</v>
+        <v>163122</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>105879</v>
+        <v>105061</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>105335</v>
+        <v>104456</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>253924</v>
+        <v>249661</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55824</v>
+        <v>55378</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57505</v>
+        <v>56138</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>114921</v>
+        <v>115367</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>107962</v>
+        <v>108288</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101873</v>
+        <v>102359</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>201245</v>
+        <v>199100</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>151719</v>
+        <v>151664</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>148267</v>
+        <v>149184</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>304420</v>
+        <v>303689</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>27614</v>
+        <v>27615</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44211</v>
+        <v>44309</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>100694</v>
+        <v>102559</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>79858</v>
+        <v>78372</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>71783</v>
+        <v>72049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>174435</v>
+        <v>173506</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>111767</v>
+        <v>112446</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>125338</v>
+        <v>124104</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>284467</v>
+        <v>284492</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50113</v>
+        <v>50714</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>75209</v>
+        <v>73823</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>137425</v>
+        <v>137393</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>113778</v>
+        <v>116293</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>108448</v>
+        <v>108937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>210458</v>
+        <v>208120</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>156196</v>
+        <v>154504</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>173496</v>
+        <v>169858</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>336101</v>
+        <v>339108</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34111</v>
+        <v>34615</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21367</v>
+        <v>22085</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>60691</v>
+        <v>60718</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>83641</v>
+        <v>82926</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>50827</v>
+        <v>52404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>131964</v>
+        <v>132174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>121611</v>
+        <v>125312</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>79940</v>
+        <v>80889</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>201562</v>
+        <v>199738</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60822</v>
+        <v>60540</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43187</v>
+        <v>44831</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>87056</v>
+        <v>86816</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>117660</v>
+        <v>116857</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>80696</v>
+        <v>81589</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>161364</v>
+        <v>162302</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>167660</v>
+        <v>169414</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>116005</v>
+        <v>116850</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>239621</v>
+        <v>240247</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36365</v>
+        <v>37689</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>40573</v>
+        <v>38892</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>81361</v>
+        <v>80866</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>132023</v>
+        <v>129271</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>96694</v>
+        <v>94789</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>222031</v>
+        <v>219655</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>177672</v>
+        <v>176456</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>142052</v>
+        <v>143171</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>307349</v>
+        <v>309274</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>64578</v>
+        <v>63634</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65197</v>
+        <v>62999</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>106399</v>
+        <v>108937</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>170383</v>
+        <v>170184</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>136827</v>
+        <v>134548</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>252675</v>
+        <v>251396</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>224891</v>
+        <v>224986</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>189386</v>
+        <v>190659</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>350112</v>
+        <v>351853</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
     </row>
     <row r="36">
